--- a/LibrosBiblioteca.xlsx
+++ b/LibrosBiblioteca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\4º Semestre Enero-Junio\Fundamentos de Bases de Datos\Biblioteca-InformaciónLibros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E228C5-ADF3-4624-BCE9-5A266F9DDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FAFB5D-E225-4CCD-B8E9-3D96ED54667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="19620" windowHeight="11760" xr2:uid="{FCB9792A-3A95-430D-A81C-CA65B8EAE856}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8403" uniqueCount="2829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8662" uniqueCount="2985">
   <si>
     <t xml:space="preserve">CONACULTURA </t>
   </si>
@@ -8055,63 +8055,6 @@
     <t>SEIX BARRAL</t>
   </si>
   <si>
-    <t>P00053</t>
-  </si>
-  <si>
-    <t>P00054</t>
-  </si>
-  <si>
-    <t>P00055</t>
-  </si>
-  <si>
-    <t>P00056</t>
-  </si>
-  <si>
-    <t>P00057</t>
-  </si>
-  <si>
-    <t>P00058</t>
-  </si>
-  <si>
-    <t>P00059</t>
-  </si>
-  <si>
-    <t>P00060</t>
-  </si>
-  <si>
-    <t>P00061</t>
-  </si>
-  <si>
-    <t>P00062</t>
-  </si>
-  <si>
-    <t>P00063</t>
-  </si>
-  <si>
-    <t>P00064</t>
-  </si>
-  <si>
-    <t>P00065</t>
-  </si>
-  <si>
-    <t>P00066</t>
-  </si>
-  <si>
-    <t>P00067</t>
-  </si>
-  <si>
-    <t>P00068</t>
-  </si>
-  <si>
-    <t>P00069</t>
-  </si>
-  <si>
-    <t>P00070</t>
-  </si>
-  <si>
-    <t>P00071</t>
-  </si>
-  <si>
     <t>POESÍA</t>
   </si>
   <si>
@@ -8124,9 +8067,6 @@
     <t>TESTIMONIOS SOBRE MARIANA</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>LOS RELÁMPAGOS DE AGOSTO</t>
   </si>
   <si>
@@ -8496,9 +8436,6 @@
     <t>CUE012</t>
   </si>
   <si>
-    <t>CUE013</t>
-  </si>
-  <si>
     <t>TEA001</t>
   </si>
   <si>
@@ -8559,7 +8496,538 @@
     <t>BIO006</t>
   </si>
   <si>
-    <t>BOGRAFÍAS</t>
+    <t>HISTORIA DEL PUEBLO MEXICANO EN IMÁGENES</t>
+  </si>
+  <si>
+    <t>MUY MALTRATADO EN HOJAS  DEL LIBRO</t>
+  </si>
+  <si>
+    <t>COLOSOS DE LA HISTORIO</t>
+  </si>
+  <si>
+    <t>DANTE GOETHE</t>
+  </si>
+  <si>
+    <t>PROMEXA</t>
+  </si>
+  <si>
+    <t>PROTAGONISTAS DE LA CIVILIZACIÓN</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>DEBATE</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>GOYA</t>
+  </si>
+  <si>
+    <t>REMBRANDT</t>
+  </si>
+  <si>
+    <t>MUSEO INTERNACIONAL DEL BARROCO</t>
+  </si>
+  <si>
+    <t>LO DIVINO Y LO HUMANO</t>
+  </si>
+  <si>
+    <t>FRIDA KAHLO</t>
+  </si>
+  <si>
+    <t>ALEJANDRO TORRES</t>
+  </si>
+  <si>
+    <t>TAMIRENSIS CARMINA…</t>
+  </si>
+  <si>
+    <t>SERGIO FUENTES GUTIÉRREZ</t>
+  </si>
+  <si>
+    <t>BIO007</t>
+  </si>
+  <si>
+    <t>MEX001</t>
+  </si>
+  <si>
+    <t>MEX002</t>
+  </si>
+  <si>
+    <t>MEX003</t>
+  </si>
+  <si>
+    <t>MEX004</t>
+  </si>
+  <si>
+    <t>MEX005</t>
+  </si>
+  <si>
+    <t>MEX006</t>
+  </si>
+  <si>
+    <t>MEX007</t>
+  </si>
+  <si>
+    <t>MEX014</t>
+  </si>
+  <si>
+    <t>MEX015</t>
+  </si>
+  <si>
+    <t>MEX016</t>
+  </si>
+  <si>
+    <t>MEX017</t>
+  </si>
+  <si>
+    <t>MEX018</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>BIO008</t>
+  </si>
+  <si>
+    <t>BIO009</t>
+  </si>
+  <si>
+    <t>BIO010</t>
+  </si>
+  <si>
+    <t>BIO011</t>
+  </si>
+  <si>
+    <t>UN TIEMPO SUSPENDIDO. CRONOLOGÍA DE LA VIDA Y LA OBRA DE JUAN RULFO</t>
+  </si>
+  <si>
+    <t>ROBERTO GARCÍA BONILLA</t>
+  </si>
+  <si>
+    <t>NELSON MANDELA. A VIDA DE UN HOMBRE LIBRE</t>
+  </si>
+  <si>
+    <t>ÉDGAR ADRIÁN MORA</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>MARTIN LUTHER KING. LA FORTALEZA DE LOS SUEÑOS</t>
+  </si>
+  <si>
+    <t>MOHANDAS GANDHI</t>
+  </si>
+  <si>
+    <t>FILÁNTROPO</t>
+  </si>
+  <si>
+    <t>RONALD HUBBARD</t>
+  </si>
+  <si>
+    <t>BRIDGE PUBLICATIONS</t>
+  </si>
+  <si>
+    <t>MORELOS. SIERVO DE LA NACIÓN</t>
+  </si>
+  <si>
+    <t>UBALDO VARGAS MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>BIOGRAFÍAS</t>
+  </si>
+  <si>
+    <t>DISEÑO E ICONOGRAFÍA. MICHOACÁN</t>
+  </si>
+  <si>
+    <t>AMALIA RAMÍREZ GARAYZAR</t>
+  </si>
+  <si>
+    <t>BIO012</t>
+  </si>
+  <si>
+    <t>BIO013</t>
+  </si>
+  <si>
+    <t>RENACIMIENTO MEXICANO</t>
+  </si>
+  <si>
+    <t>CÉSAR DANIEL GONZÁLEZ MADRUGA Y WITZIN ADRIANA MORALES ORTIZ</t>
+  </si>
+  <si>
+    <t>ACADEMIA MEXICANA DE EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>CONSTRUYENDO LOS TEMAS CLAVE DE LA COOPERACIÓN INTERNACIONAL PARA EL DESARROLLO EN MÉXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEATRIZ SCHMUKLER, CITLALI AYALA MARTÍNEZ Y GABRIELA SÁNCHEZ G. </t>
+  </si>
+  <si>
+    <t>EL PERSONLA ES POLÍTICO</t>
+  </si>
+  <si>
+    <t>LUCRECIA INFANTE VARGAS, ADRIANA MAZA, MARTHA SANTILLÁN</t>
+  </si>
+  <si>
+    <t>NUEVA ALIANZA</t>
+  </si>
+  <si>
+    <t>ENTRE LA TIERRA Y EL CIELO</t>
+  </si>
+  <si>
+    <t>GABRIELA SOLÍS ROBLEDA</t>
+  </si>
+  <si>
+    <t>REFLEXIONES SOBRE LA CRISIS DE REPRESENTACIÓN POLÍTICA EN MÉXICO</t>
+  </si>
+  <si>
+    <t>ALICIA HERNÁNDEZ DE GANTE</t>
+  </si>
+  <si>
+    <t>MONTIEL &amp; SORIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADO FALLIDO. CORRUPCIÓN Y DERROCHES HUNDEN A MÉXICO. </t>
+  </si>
+  <si>
+    <t>MANUEL SÁNCHEZ PONTÓN</t>
+  </si>
+  <si>
+    <t>EL ERRANTE</t>
+  </si>
+  <si>
+    <t>LA DISCRIMINACIÓN EN MÉXICO</t>
+  </si>
+  <si>
+    <t>CONAPRED</t>
+  </si>
+  <si>
+    <t>MEXICANOS AL GRITO DE GUERRA. HISTORIA DEL HIMNO NACIONAL</t>
+  </si>
+  <si>
+    <t>TERESA BONILLA</t>
+  </si>
+  <si>
+    <t>FORMAS DE VOTO, PRÁCTICAS DE LAS ASAMBLEAS Y TOMA DE DECISIONES. UN ACERCAMIENTO COMPARATIVO</t>
+  </si>
+  <si>
+    <t>VÍCTOR M. FRANCO PELLOTIER, DANIÈLE DEHOUVE Y ALINE HÉMOND</t>
+  </si>
+  <si>
+    <t>CIESAS</t>
+  </si>
+  <si>
+    <t>FAMILIA</t>
+  </si>
+  <si>
+    <t>CONAPO</t>
+  </si>
+  <si>
+    <t>MÉTODOS DE PLANIFICACIÓN FAMILIAR</t>
+  </si>
+  <si>
+    <t>RED SOCIAL DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>MEX019</t>
+  </si>
+  <si>
+    <t>MEX020</t>
+  </si>
+  <si>
+    <t>MEX021</t>
+  </si>
+  <si>
+    <t>MEX022</t>
+  </si>
+  <si>
+    <t>MEX023</t>
+  </si>
+  <si>
+    <t>MEX024</t>
+  </si>
+  <si>
+    <t>MEX025</t>
+  </si>
+  <si>
+    <t>MEX026</t>
+  </si>
+  <si>
+    <t>MEX027</t>
+  </si>
+  <si>
+    <t>MEX028</t>
+  </si>
+  <si>
+    <t>MEX029</t>
+  </si>
+  <si>
+    <t>MEX030</t>
+  </si>
+  <si>
+    <t>MEX031</t>
+  </si>
+  <si>
+    <t>MEX032</t>
+  </si>
+  <si>
+    <t>MEX033</t>
+  </si>
+  <si>
+    <t>MEX034</t>
+  </si>
+  <si>
+    <t>MEX035</t>
+  </si>
+  <si>
+    <t>MEX036</t>
+  </si>
+  <si>
+    <t>MEX037</t>
+  </si>
+  <si>
+    <t>MEX038</t>
+  </si>
+  <si>
+    <t>MEX039</t>
+  </si>
+  <si>
+    <t>MEX040</t>
+  </si>
+  <si>
+    <t>MEX041</t>
+  </si>
+  <si>
+    <t>MEX042</t>
+  </si>
+  <si>
+    <t>MEX043</t>
+  </si>
+  <si>
+    <t>CIUDADANOS Y CIUDADANAS</t>
+  </si>
+  <si>
+    <t>POBLACIÓN</t>
+  </si>
+  <si>
+    <t>UNA VISITA AL CENTRO CULTURAL SANTO DOMINGO EN OAXACA</t>
+  </si>
+  <si>
+    <t>MÉXICO INTERACTIVO</t>
+  </si>
+  <si>
+    <t>LA MUERTE ENTRE LOS MEXICAS</t>
+  </si>
+  <si>
+    <t>EDUARDO MATOS MOCTEZUMA</t>
+  </si>
+  <si>
+    <t>UNA VILLA MEXICANA EN EL SILO XVIII. NUESTRA SEÑORA DE GUADALUPE</t>
+  </si>
+  <si>
+    <t>DELFINA LÓPEZ SARRELANGUE</t>
+  </si>
+  <si>
+    <t>LOS SENTIMIENTOS DEL CORAZÓN DE MÉXICO</t>
+  </si>
+  <si>
+    <t>CÉSAR G. MADRUGA (COMPILADOR)</t>
+  </si>
+  <si>
+    <t>AGUEDA</t>
+  </si>
+  <si>
+    <t>EL MÉXICO PENDIENTE: AGENDA PARA LA GOBERNABILIDAD</t>
+  </si>
+  <si>
+    <t>GUILLERMO DELOYA COBIÁN</t>
+  </si>
+  <si>
+    <t>YO'TAN K'OP CORAZÓN DE LA PALABRA</t>
+  </si>
+  <si>
+    <t>ILÁN RABCHINSKEY, REGINA TATTERSFIELD</t>
+  </si>
+  <si>
+    <t>DIÁLOGO SOBRE LA HISTORIA DE LA PINTURA EN MÉXICO</t>
+  </si>
+  <si>
+    <t>JOSÉ BERNARDO CUOTO</t>
+  </si>
+  <si>
+    <t>ITALO CALVINO EN MÉXICO</t>
+  </si>
+  <si>
+    <t>PETRA EDICIONES</t>
+  </si>
+  <si>
+    <t>JILL HARTLEY</t>
+  </si>
+  <si>
+    <t>LOS TRÁGICOS SUCESOS DEL 21 DE MAYO DE 1920 EN TLAXCALANTONGO</t>
+  </si>
+  <si>
+    <t>GUSTAVO DE LA TORRE</t>
+  </si>
+  <si>
+    <t>LAS PALABRAS Y MARAVILLAS</t>
+  </si>
+  <si>
+    <t>SYBILLE DE PURY-TOUMI</t>
+  </si>
+  <si>
+    <t>UN POCO MALTRATADO EN COBERTURA DEL LIBRO</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN DE LA PROVINCIA DE SONORA</t>
+  </si>
+  <si>
+    <t>IGNAZ PFEFFERKORN</t>
+  </si>
+  <si>
+    <t>TRAGICOMEDIA MEXICANA. LA VIDA EN MÉXICO DE 1970 A 1988</t>
+  </si>
+  <si>
+    <t>LOS YANQUIS EN MÉXICO</t>
+  </si>
+  <si>
+    <t>APUNTES PARA MIS HIJOS</t>
+  </si>
+  <si>
+    <t>BENITO JUAREZ</t>
+  </si>
+  <si>
+    <t>LOS CONVIDADOS DE AGOSTO</t>
+  </si>
+  <si>
+    <t>ROSARIO CASTELLANOS</t>
+  </si>
+  <si>
+    <t>EL COMPLOT CONTRA LOS ESCIPIONES</t>
+  </si>
+  <si>
+    <t>VALERIO MASSINO MANFREDI</t>
+  </si>
+  <si>
+    <t>SENTIMIENTOS DE LA NACIÓN</t>
+  </si>
+  <si>
+    <t>JOSÉ MARÍA MORELOS Y PAVÓN</t>
+  </si>
+  <si>
+    <t>CULTURA MEXICANA</t>
+  </si>
+  <si>
+    <t>MARÍA DEL CARMEN ELIZUNDIA PONCE</t>
+  </si>
+  <si>
+    <t>LOS MÁRTIRES DE TACUBAYA</t>
+  </si>
+  <si>
+    <t>ORIENTE DE LOS INSECTOS MEXICANOS</t>
+  </si>
+  <si>
+    <t>PABLO SOLER FROST</t>
+  </si>
+  <si>
+    <t>ALDUS</t>
+  </si>
+  <si>
+    <t>CONFLICTO Y PODER EN LA UNAM. HUELGA DE 1999</t>
+  </si>
+  <si>
+    <t>GERARDO L. DORANTES</t>
+  </si>
+  <si>
+    <t>POPOL VUH</t>
+  </si>
+  <si>
+    <t>AGUSTÍN ESTRADA MONROY</t>
+  </si>
+  <si>
+    <t>MONARQUÍA INDIANA</t>
+  </si>
+  <si>
+    <t>JUAN DE TORQUEMADA</t>
+  </si>
+  <si>
+    <t>MEX044</t>
+  </si>
+  <si>
+    <t>MEX045</t>
+  </si>
+  <si>
+    <t>LOS ANTIGUOS MAYAS</t>
+  </si>
+  <si>
+    <t>ALBERTO RUIZ LHUILLIER</t>
+  </si>
+  <si>
+    <t>MEX046</t>
+  </si>
+  <si>
+    <t>MEX047</t>
+  </si>
+  <si>
+    <t>MEX048</t>
+  </si>
+  <si>
+    <t>MEX049</t>
+  </si>
+  <si>
+    <t>MEX050</t>
+  </si>
+  <si>
+    <t>MEX051</t>
+  </si>
+  <si>
+    <t>1914 DE LA PAZ A LA GUERRA</t>
+  </si>
+  <si>
+    <t>MARGARET MACMILLAN</t>
+  </si>
+  <si>
+    <t>MI LUCHA</t>
+  </si>
+  <si>
+    <t>ADOLFO HITLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANZ ETHER NACHFOLGER GMBH </t>
+  </si>
+  <si>
+    <t>LA VIDA SECRETA DE LOS NAZIS</t>
+  </si>
+  <si>
+    <t>PAUL RONALD</t>
+  </si>
+  <si>
+    <t>BIO014</t>
+  </si>
+  <si>
+    <t>VISIONES DESDE EL SUR DE AMÉRICA</t>
+  </si>
+  <si>
+    <t>ROSARIO GREEN</t>
+  </si>
+  <si>
+    <t>DIOSES DEL NORTE, DIOSES DEL SUR</t>
+  </si>
+  <si>
+    <t>ALFREDO LÓPEZ AUSTIN. LUIS MILLONES</t>
+  </si>
+  <si>
+    <t>FIDEL</t>
+  </si>
+  <si>
+    <t>GIANNI MINÀ</t>
+  </si>
+  <si>
+    <t>MLTRATADO EN COBERTURA Y PÁGINAS DEL LIBRO</t>
   </si>
 </sst>
 </file>
@@ -8942,12 +9410,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF6CA0C-E573-4DC5-953F-A75EAD0EA7AD}">
-  <dimension ref="A1:M970"/>
+  <dimension ref="A1:M963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A954" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="B650" sqref="B650"/>
+      <selection pane="bottomLeft" activeCell="M964" sqref="M964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28529,7 +28997,7 @@
         <v>1523</v>
       </c>
       <c r="C479" t="s">
-        <v>2702</v>
+        <v>2682</v>
       </c>
       <c r="D479" t="s">
         <v>823</v>
@@ -44065,7 +44533,7 @@
         <v>2642</v>
       </c>
       <c r="B858" t="s">
-        <v>2682</v>
+        <v>2663</v>
       </c>
       <c r="C858" t="s">
         <v>2504</v>
@@ -44144,16 +44612,16 @@
     </row>
     <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>2748</v>
+        <v>2728</v>
       </c>
       <c r="B860" t="s">
-        <v>2680</v>
+        <v>2661</v>
       </c>
       <c r="C860" t="s">
-        <v>2681</v>
+        <v>2662</v>
       </c>
       <c r="D860" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E860" t="s">
         <v>321</v>
@@ -44177,7 +44645,7 @@
         <v>2</v>
       </c>
       <c r="L860" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M860" t="s">
         <v>52</v>
@@ -44185,16 +44653,16 @@
     </row>
     <row r="861" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>2749</v>
+        <v>2729</v>
       </c>
       <c r="B861" t="s">
-        <v>2684</v>
+        <v>2664</v>
       </c>
       <c r="C861" t="s">
         <v>2377</v>
       </c>
       <c r="D861" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E861" t="s">
         <v>321</v>
@@ -44203,7 +44671,7 @@
         <v>1</v>
       </c>
       <c r="G861" t="s">
-        <v>2685</v>
+        <v>2665</v>
       </c>
       <c r="H861">
         <v>132</v>
@@ -44218,7 +44686,7 @@
         <v>1</v>
       </c>
       <c r="L861" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M861" t="s">
         <v>52</v>
@@ -44226,16 +44694,16 @@
     </row>
     <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>2750</v>
+        <v>2730</v>
       </c>
       <c r="B862" t="s">
-        <v>2686</v>
+        <v>2666</v>
       </c>
       <c r="C862" t="s">
-        <v>2687</v>
+        <v>2667</v>
       </c>
       <c r="D862" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E862" t="s">
         <v>321</v>
@@ -44259,7 +44727,7 @@
         <v>1</v>
       </c>
       <c r="L862" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M862" t="s">
         <v>52</v>
@@ -44267,16 +44735,16 @@
     </row>
     <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>2751</v>
+        <v>2731</v>
       </c>
       <c r="B863" t="s">
-        <v>2688</v>
+        <v>2668</v>
       </c>
       <c r="C863" t="s">
-        <v>2689</v>
+        <v>2669</v>
       </c>
       <c r="D863" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E863" t="s">
         <v>321</v>
@@ -44285,7 +44753,7 @@
         <v>1</v>
       </c>
       <c r="G863" t="s">
-        <v>2690</v>
+        <v>2670</v>
       </c>
       <c r="H863">
         <v>126</v>
@@ -44300,7 +44768,7 @@
         <v>1</v>
       </c>
       <c r="L863" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M863" t="s">
         <v>52</v>
@@ -44308,16 +44776,16 @@
     </row>
     <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>2752</v>
+        <v>2732</v>
       </c>
       <c r="B864" t="s">
-        <v>2691</v>
+        <v>2671</v>
       </c>
       <c r="C864" t="s">
-        <v>2692</v>
+        <v>2672</v>
       </c>
       <c r="D864" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E864" t="s">
         <v>321</v>
@@ -44341,7 +44809,7 @@
         <v>1</v>
       </c>
       <c r="L864" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M864" t="s">
         <v>52</v>
@@ -44349,16 +44817,16 @@
     </row>
     <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>2753</v>
+        <v>2733</v>
       </c>
       <c r="B865" t="s">
-        <v>2694</v>
+        <v>2674</v>
       </c>
       <c r="C865" t="s">
-        <v>2693</v>
+        <v>2673</v>
       </c>
       <c r="D865" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E865" t="s">
         <v>321</v>
@@ -44382,7 +44850,7 @@
         <v>1</v>
       </c>
       <c r="L865" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M865" t="s">
         <v>52</v>
@@ -44390,16 +44858,16 @@
     </row>
     <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>2754</v>
+        <v>2734</v>
       </c>
       <c r="B866" t="s">
         <v>1333</v>
       </c>
       <c r="C866" t="s">
-        <v>2695</v>
+        <v>2675</v>
       </c>
       <c r="D866" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E866" t="s">
         <v>321</v>
@@ -44423,7 +44891,7 @@
         <v>3</v>
       </c>
       <c r="L866" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M866" t="s">
         <v>52</v>
@@ -44431,7 +44899,7 @@
     </row>
     <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>2755</v>
+        <v>2735</v>
       </c>
       <c r="B867" t="s">
         <v>1004</v>
@@ -44440,7 +44908,7 @@
         <v>1005</v>
       </c>
       <c r="D867" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E867" t="s">
         <v>321</v>
@@ -44464,7 +44932,7 @@
         <v>1</v>
       </c>
       <c r="L867" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M867" t="s">
         <v>52</v>
@@ -44472,16 +44940,16 @@
     </row>
     <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>2756</v>
+        <v>2736</v>
       </c>
       <c r="B868" t="s">
-        <v>2696</v>
+        <v>2676</v>
       </c>
       <c r="C868" t="s">
         <v>2607</v>
       </c>
       <c r="D868" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E868" t="s">
         <v>321</v>
@@ -44505,7 +44973,7 @@
         <v>1</v>
       </c>
       <c r="L868" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M868" t="s">
         <v>52</v>
@@ -44513,16 +44981,16 @@
     </row>
     <row r="869" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>2757</v>
+        <v>2737</v>
       </c>
       <c r="B869" t="s">
-        <v>2697</v>
+        <v>2677</v>
       </c>
       <c r="C869" t="s">
         <v>1890</v>
       </c>
       <c r="D869" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E869" t="s">
         <v>321</v>
@@ -44546,7 +45014,7 @@
         <v>2</v>
       </c>
       <c r="L869" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M869" t="s">
         <v>52</v>
@@ -44554,16 +45022,16 @@
     </row>
     <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>2758</v>
+        <v>2738</v>
       </c>
       <c r="B870" t="s">
-        <v>2698</v>
+        <v>2678</v>
       </c>
       <c r="C870" t="s">
-        <v>2699</v>
+        <v>2679</v>
       </c>
       <c r="D870" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E870" t="s">
         <v>321</v>
@@ -44587,7 +45055,7 @@
         <v>1</v>
       </c>
       <c r="L870" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M870" t="s">
         <v>52</v>
@@ -44595,16 +45063,16 @@
     </row>
     <row r="871" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>2759</v>
+        <v>2739</v>
       </c>
       <c r="B871" t="s">
-        <v>2700</v>
+        <v>2680</v>
       </c>
       <c r="C871" t="s">
-        <v>2701</v>
+        <v>2681</v>
       </c>
       <c r="D871" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E871" t="s">
         <v>321</v>
@@ -44628,7 +45096,7 @@
         <v>1</v>
       </c>
       <c r="L871" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M871" t="s">
         <v>52</v>
@@ -44636,16 +45104,16 @@
     </row>
     <row r="872" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>2760</v>
+        <v>2740</v>
       </c>
       <c r="B872" t="s">
-        <v>2703</v>
+        <v>2683</v>
       </c>
       <c r="C872" t="s">
         <v>1887</v>
       </c>
       <c r="D872" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E872" t="s">
         <v>321</v>
@@ -44654,7 +45122,7 @@
         <v>1</v>
       </c>
       <c r="G872" t="s">
-        <v>2704</v>
+        <v>2684</v>
       </c>
       <c r="H872">
         <v>200</v>
@@ -44669,7 +45137,7 @@
         <v>2</v>
       </c>
       <c r="L872" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M872" t="s">
         <v>52</v>
@@ -44677,16 +45145,16 @@
     </row>
     <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>2761</v>
+        <v>2741</v>
       </c>
       <c r="B873" t="s">
-        <v>2705</v>
+        <v>2685</v>
       </c>
       <c r="C873" t="s">
-        <v>2706</v>
+        <v>2686</v>
       </c>
       <c r="D873" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E873" t="s">
         <v>321</v>
@@ -44710,7 +45178,7 @@
         <v>2</v>
       </c>
       <c r="L873" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M873" t="s">
         <v>52</v>
@@ -44718,16 +45186,16 @@
     </row>
     <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>2762</v>
+        <v>2742</v>
       </c>
       <c r="B874" t="s">
-        <v>2707</v>
+        <v>2687</v>
       </c>
       <c r="C874" t="s">
-        <v>2708</v>
+        <v>2688</v>
       </c>
       <c r="D874" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E874" t="s">
         <v>321</v>
@@ -44736,7 +45204,7 @@
         <v>1</v>
       </c>
       <c r="G874" t="s">
-        <v>2709</v>
+        <v>2689</v>
       </c>
       <c r="H874">
         <v>390</v>
@@ -44751,7 +45219,7 @@
         <v>1</v>
       </c>
       <c r="L874" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M874" t="s">
         <v>52</v>
@@ -44759,16 +45227,16 @@
     </row>
     <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>2763</v>
+        <v>2743</v>
       </c>
       <c r="B875" t="s">
-        <v>2710</v>
+        <v>2690</v>
       </c>
       <c r="C875" t="s">
-        <v>2711</v>
+        <v>2691</v>
       </c>
       <c r="D875" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E875" t="s">
         <v>321</v>
@@ -44792,7 +45260,7 @@
         <v>1</v>
       </c>
       <c r="L875" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M875" t="s">
         <v>52</v>
@@ -44800,16 +45268,16 @@
     </row>
     <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>2764</v>
+        <v>2744</v>
       </c>
       <c r="B876" t="s">
-        <v>2712</v>
+        <v>2692</v>
       </c>
       <c r="C876" t="s">
-        <v>2713</v>
+        <v>2693</v>
       </c>
       <c r="D876" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E876" t="s">
         <v>321</v>
@@ -44818,7 +45286,7 @@
         <v>1</v>
       </c>
       <c r="G876" t="s">
-        <v>2714</v>
+        <v>2694</v>
       </c>
       <c r="H876">
         <v>103</v>
@@ -44833,7 +45301,7 @@
         <v>2</v>
       </c>
       <c r="L876" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M876" t="s">
         <v>52</v>
@@ -44841,7 +45309,7 @@
     </row>
     <row r="877" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>2765</v>
+        <v>2745</v>
       </c>
       <c r="B877" t="s">
         <v>1357</v>
@@ -44850,7 +45318,7 @@
         <v>1358</v>
       </c>
       <c r="D877" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E877" t="s">
         <v>321</v>
@@ -44874,7 +45342,7 @@
         <v>1</v>
       </c>
       <c r="L877" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M877" t="s">
         <v>52</v>
@@ -44882,16 +45350,16 @@
     </row>
     <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>2766</v>
+        <v>2746</v>
       </c>
       <c r="B878" t="s">
-        <v>2715</v>
+        <v>2695</v>
       </c>
       <c r="C878" t="s">
-        <v>2716</v>
+        <v>2696</v>
       </c>
       <c r="D878" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E878" t="s">
         <v>321</v>
@@ -44915,7 +45383,7 @@
         <v>2</v>
       </c>
       <c r="L878" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M878" t="s">
         <v>52</v>
@@ -44923,16 +45391,16 @@
     </row>
     <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>2767</v>
+        <v>2747</v>
       </c>
       <c r="B879" t="s">
-        <v>2717</v>
+        <v>2697</v>
       </c>
       <c r="C879" t="s">
-        <v>2718</v>
+        <v>2698</v>
       </c>
       <c r="D879" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E879" t="s">
         <v>321</v>
@@ -44956,7 +45424,7 @@
         <v>1</v>
       </c>
       <c r="L879" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M879" t="s">
         <v>52</v>
@@ -44964,16 +45432,16 @@
     </row>
     <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>2768</v>
+        <v>2748</v>
       </c>
       <c r="B880" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="C880" t="s">
-        <v>2719</v>
+        <v>2699</v>
       </c>
       <c r="D880" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E880" t="s">
         <v>321</v>
@@ -44982,7 +45450,7 @@
         <v>1</v>
       </c>
       <c r="G880" t="s">
-        <v>2720</v>
+        <v>2700</v>
       </c>
       <c r="H880">
         <v>287</v>
@@ -44997,7 +45465,7 @@
         <v>1</v>
       </c>
       <c r="L880" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M880" t="s">
         <v>52</v>
@@ -45005,16 +45473,16 @@
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>2769</v>
+        <v>2749</v>
       </c>
       <c r="B881" t="s">
-        <v>2721</v>
+        <v>2701</v>
       </c>
       <c r="C881" t="s">
-        <v>2722</v>
+        <v>2702</v>
       </c>
       <c r="D881" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E881" t="s">
         <v>321</v>
@@ -45038,7 +45506,7 @@
         <v>1</v>
       </c>
       <c r="L881" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M881" t="s">
         <v>52</v>
@@ -45046,16 +45514,16 @@
     </row>
     <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>2770</v>
+        <v>2750</v>
       </c>
       <c r="B882" t="s">
-        <v>2723</v>
+        <v>2703</v>
       </c>
       <c r="C882" t="s">
-        <v>2724</v>
+        <v>2704</v>
       </c>
       <c r="D882" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E882" t="s">
         <v>321</v>
@@ -45079,7 +45547,7 @@
         <v>2</v>
       </c>
       <c r="L882" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M882" t="s">
         <v>52</v>
@@ -45087,16 +45555,16 @@
     </row>
     <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>2771</v>
+        <v>2751</v>
       </c>
       <c r="B883" t="s">
-        <v>2725</v>
+        <v>2705</v>
       </c>
       <c r="C883" t="s">
-        <v>2727</v>
+        <v>2707</v>
       </c>
       <c r="D883" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E883" t="s">
         <v>321</v>
@@ -45105,7 +45573,7 @@
         <v>1</v>
       </c>
       <c r="G883" t="s">
-        <v>2726</v>
+        <v>2706</v>
       </c>
       <c r="H883">
         <v>183</v>
@@ -45120,7 +45588,7 @@
         <v>2</v>
       </c>
       <c r="L883" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M883" t="s">
         <v>2475</v>
@@ -45128,16 +45596,16 @@
     </row>
     <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>2772</v>
+        <v>2752</v>
       </c>
       <c r="B884" t="s">
-        <v>2728</v>
+        <v>2708</v>
       </c>
       <c r="C884" t="s">
-        <v>2729</v>
+        <v>2709</v>
       </c>
       <c r="D884" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E884" t="s">
         <v>321</v>
@@ -45161,7 +45629,7 @@
         <v>1</v>
       </c>
       <c r="L884" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M884" t="s">
         <v>52</v>
@@ -45169,16 +45637,16 @@
     </row>
     <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>2773</v>
+        <v>2753</v>
       </c>
       <c r="B885" t="s">
-        <v>2730</v>
+        <v>2710</v>
       </c>
       <c r="C885" t="s">
-        <v>2731</v>
+        <v>2711</v>
       </c>
       <c r="D885" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E885" t="s">
         <v>321</v>
@@ -45202,7 +45670,7 @@
         <v>1</v>
       </c>
       <c r="L885" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M885" t="s">
         <v>52</v>
@@ -45210,16 +45678,16 @@
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>2774</v>
+        <v>2754</v>
       </c>
       <c r="B886" t="s">
-        <v>2732</v>
+        <v>2712</v>
       </c>
       <c r="C886" t="s">
-        <v>2733</v>
+        <v>2713</v>
       </c>
       <c r="D886" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E886" t="s">
         <v>321</v>
@@ -45228,7 +45696,7 @@
         <v>1</v>
       </c>
       <c r="G886" t="s">
-        <v>2734</v>
+        <v>2714</v>
       </c>
       <c r="H886">
         <v>96</v>
@@ -45243,7 +45711,7 @@
         <v>1</v>
       </c>
       <c r="L886" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M886" t="s">
         <v>52</v>
@@ -45251,16 +45719,16 @@
     </row>
     <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>2775</v>
+        <v>2755</v>
       </c>
       <c r="B887" t="s">
-        <v>2735</v>
+        <v>2715</v>
       </c>
       <c r="C887" t="s">
-        <v>2736</v>
+        <v>2716</v>
       </c>
       <c r="D887" t="s">
-        <v>2679</v>
+        <v>2660</v>
       </c>
       <c r="E887" t="s">
         <v>321</v>
@@ -45284,7 +45752,7 @@
         <v>1</v>
       </c>
       <c r="L887" t="s">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="M887" t="s">
         <v>52</v>
@@ -45292,13 +45760,13 @@
     </row>
     <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>2738</v>
+        <v>2718</v>
       </c>
       <c r="B888" t="s">
-        <v>2776</v>
+        <v>2758</v>
       </c>
       <c r="C888" t="s">
-        <v>2777</v>
+        <v>2759</v>
       </c>
       <c r="D888" t="s">
         <v>1588</v>
@@ -45310,22 +45778,22 @@
         <v>1</v>
       </c>
       <c r="G888" t="s">
-        <v>2134</v>
+        <v>56</v>
       </c>
       <c r="H888">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="I888" t="s">
         <v>41</v>
       </c>
       <c r="J888">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="K888">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L888" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M888" t="s">
         <v>52</v>
@@ -45333,13 +45801,13 @@
     </row>
     <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>2739</v>
+        <v>2719</v>
       </c>
       <c r="B889" t="s">
-        <v>2778</v>
+        <v>2760</v>
       </c>
       <c r="C889" t="s">
-        <v>2779</v>
+        <v>2130</v>
       </c>
       <c r="D889" t="s">
         <v>1588</v>
@@ -45354,19 +45822,19 @@
         <v>56</v>
       </c>
       <c r="H889">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="I889" t="s">
         <v>41</v>
       </c>
       <c r="J889">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="K889">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L889" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M889" t="s">
         <v>52</v>
@@ -45374,13 +45842,13 @@
     </row>
     <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>2740</v>
+        <v>2720</v>
       </c>
       <c r="B890" t="s">
-        <v>2780</v>
+        <v>2761</v>
       </c>
       <c r="C890" t="s">
-        <v>2130</v>
+        <v>2762</v>
       </c>
       <c r="D890" t="s">
         <v>1588</v>
@@ -45392,36 +45860,36 @@
         <v>1</v>
       </c>
       <c r="G890" t="s">
-        <v>56</v>
+        <v>2763</v>
       </c>
       <c r="H890">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="I890" t="s">
         <v>41</v>
       </c>
       <c r="J890">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="K890">
         <v>1</v>
       </c>
       <c r="L890" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M890" t="s">
-        <v>52</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>2741</v>
+        <v>2721</v>
       </c>
       <c r="B891" t="s">
-        <v>2781</v>
+        <v>2764</v>
       </c>
       <c r="C891" t="s">
-        <v>2782</v>
+        <v>2765</v>
       </c>
       <c r="D891" t="s">
         <v>1588</v>
@@ -45433,36 +45901,36 @@
         <v>1</v>
       </c>
       <c r="G891" t="s">
-        <v>2783</v>
+        <v>2766</v>
       </c>
       <c r="H891">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I891" t="s">
         <v>41</v>
       </c>
       <c r="J891">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="K891">
         <v>1</v>
       </c>
       <c r="L891" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M891" t="s">
-        <v>2475</v>
+        <v>52</v>
       </c>
     </row>
     <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>2742</v>
+        <v>2722</v>
       </c>
       <c r="B892" t="s">
-        <v>2784</v>
+        <v>2767</v>
       </c>
       <c r="C892" t="s">
-        <v>2785</v>
+        <v>2375</v>
       </c>
       <c r="D892" t="s">
         <v>1588</v>
@@ -45474,36 +45942,36 @@
         <v>1</v>
       </c>
       <c r="G892" t="s">
-        <v>2786</v>
+        <v>222</v>
       </c>
       <c r="H892">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="I892" t="s">
-        <v>41</v>
+        <v>2768</v>
       </c>
       <c r="J892">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="K892">
         <v>1</v>
       </c>
       <c r="L892" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M892" t="s">
-        <v>52</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>2743</v>
+        <v>2723</v>
       </c>
       <c r="B893" t="s">
-        <v>2787</v>
+        <v>2769</v>
       </c>
       <c r="C893" t="s">
-        <v>2375</v>
+        <v>2770</v>
       </c>
       <c r="D893" t="s">
         <v>1588</v>
@@ -45515,36 +45983,36 @@
         <v>1</v>
       </c>
       <c r="G893" t="s">
-        <v>222</v>
+        <v>978</v>
       </c>
       <c r="H893">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="I893" t="s">
-        <v>2788</v>
+        <v>41</v>
       </c>
       <c r="J893">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="K893">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L893" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M893" t="s">
-        <v>2475</v>
+        <v>52</v>
       </c>
     </row>
     <row r="894" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>2744</v>
+        <v>2724</v>
       </c>
       <c r="B894" t="s">
-        <v>2789</v>
+        <v>2771</v>
       </c>
       <c r="C894" t="s">
-        <v>2790</v>
+        <v>2772</v>
       </c>
       <c r="D894" t="s">
         <v>1588</v>
@@ -45556,22 +46024,22 @@
         <v>1</v>
       </c>
       <c r="G894" t="s">
-        <v>978</v>
+        <v>2700</v>
       </c>
       <c r="H894">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="I894" t="s">
         <v>41</v>
       </c>
       <c r="J894">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="K894">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L894" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M894" t="s">
         <v>52</v>
@@ -45579,13 +46047,13 @@
     </row>
     <row r="895" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>2745</v>
+        <v>2725</v>
       </c>
       <c r="B895" t="s">
-        <v>2791</v>
+        <v>2773</v>
       </c>
       <c r="C895" t="s">
-        <v>2792</v>
+        <v>2774</v>
       </c>
       <c r="D895" t="s">
         <v>1588</v>
@@ -45597,10 +46065,10 @@
         <v>1</v>
       </c>
       <c r="G895" t="s">
-        <v>2720</v>
+        <v>2700</v>
       </c>
       <c r="H895">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I895" t="s">
         <v>41</v>
@@ -45612,7 +46080,7 @@
         <v>1</v>
       </c>
       <c r="L895" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M895" t="s">
         <v>52</v>
@@ -45620,13 +46088,13 @@
     </row>
     <row r="896" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>2746</v>
+        <v>2726</v>
       </c>
       <c r="B896" t="s">
-        <v>2793</v>
+        <v>2775</v>
       </c>
       <c r="C896" t="s">
-        <v>2794</v>
+        <v>2776</v>
       </c>
       <c r="D896" t="s">
         <v>1588</v>
@@ -45638,36 +46106,36 @@
         <v>1</v>
       </c>
       <c r="G896" t="s">
-        <v>2720</v>
+        <v>2777</v>
       </c>
       <c r="H896">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="I896" t="s">
         <v>41</v>
       </c>
       <c r="J896">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="K896">
         <v>1</v>
       </c>
       <c r="L896" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M896" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
     </row>
     <row r="897" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>2804</v>
+        <v>2784</v>
       </c>
       <c r="B897" t="s">
-        <v>2795</v>
+        <v>2778</v>
       </c>
       <c r="C897" t="s">
-        <v>2796</v>
+        <v>2779</v>
       </c>
       <c r="D897" t="s">
         <v>1588</v>
@@ -45679,36 +46147,36 @@
         <v>1</v>
       </c>
       <c r="G897" t="s">
-        <v>2797</v>
+        <v>1725</v>
       </c>
       <c r="H897">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I897" t="s">
         <v>41</v>
       </c>
       <c r="J897">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="K897">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L897" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M897" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
     </row>
     <row r="898" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>2805</v>
+        <v>2785</v>
       </c>
       <c r="B898" t="s">
-        <v>2798</v>
+        <v>2780</v>
       </c>
       <c r="C898" t="s">
-        <v>2799</v>
+        <v>2781</v>
       </c>
       <c r="D898" t="s">
         <v>1588</v>
@@ -45720,10 +46188,10 @@
         <v>1</v>
       </c>
       <c r="G898" t="s">
-        <v>1725</v>
+        <v>56</v>
       </c>
       <c r="H898">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I898" t="s">
         <v>41</v>
@@ -45732,10 +46200,10 @@
         <v>2012</v>
       </c>
       <c r="K898">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L898" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M898" t="s">
         <v>52</v>
@@ -45743,13 +46211,13 @@
     </row>
     <row r="899" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>2806</v>
+        <v>2786</v>
       </c>
       <c r="B899" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="C899" t="s">
-        <v>2801</v>
+        <v>2783</v>
       </c>
       <c r="D899" t="s">
         <v>1588</v>
@@ -45764,7 +46232,7 @@
         <v>56</v>
       </c>
       <c r="H899">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="I899" t="s">
         <v>41</v>
@@ -45776,7 +46244,7 @@
         <v>1</v>
       </c>
       <c r="L899" t="s">
-        <v>2737</v>
+        <v>2717</v>
       </c>
       <c r="M899" t="s">
         <v>52</v>
@@ -45784,98 +46252,98 @@
     </row>
     <row r="900" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>2807</v>
+        <v>2787</v>
       </c>
       <c r="B900" t="s">
-        <v>2802</v>
+        <v>2794</v>
       </c>
       <c r="C900" t="s">
-        <v>2803</v>
+        <v>2795</v>
       </c>
       <c r="D900" t="s">
-        <v>1588</v>
+        <v>2792</v>
       </c>
       <c r="E900" t="s">
         <v>321</v>
       </c>
       <c r="F900">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G900" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="H900">
-        <v>99</v>
+        <v>630</v>
       </c>
       <c r="I900" t="s">
         <v>41</v>
       </c>
       <c r="J900">
-        <v>2012</v>
+        <v>1994</v>
       </c>
       <c r="K900">
         <v>1</v>
       </c>
       <c r="L900" t="s">
-        <v>2737</v>
+        <v>2793</v>
       </c>
       <c r="M900" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
     </row>
     <row r="901" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>2808</v>
+        <v>2788</v>
       </c>
       <c r="B901" t="s">
-        <v>2815</v>
+        <v>2796</v>
       </c>
       <c r="C901" t="s">
-        <v>2816</v>
+        <v>2797</v>
       </c>
       <c r="D901" t="s">
-        <v>2813</v>
+        <v>2792</v>
       </c>
       <c r="E901" t="s">
         <v>321</v>
       </c>
       <c r="F901">
+        <v>1</v>
+      </c>
+      <c r="G901" t="s">
+        <v>2798</v>
+      </c>
+      <c r="H901">
+        <v>478</v>
+      </c>
+      <c r="I901" t="s">
+        <v>41</v>
+      </c>
+      <c r="J901">
+        <v>2013</v>
+      </c>
+      <c r="K901">
         <v>2</v>
       </c>
-      <c r="G901" t="s">
-        <v>210</v>
-      </c>
-      <c r="H901">
-        <v>630</v>
-      </c>
-      <c r="I901" t="s">
-        <v>41</v>
-      </c>
-      <c r="J901">
-        <v>1994</v>
-      </c>
-      <c r="K901">
-        <v>1</v>
-      </c>
       <c r="L901" t="s">
-        <v>2814</v>
+        <v>2793</v>
       </c>
       <c r="M901" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
     </row>
     <row r="902" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>2809</v>
+        <v>2789</v>
       </c>
       <c r="B902" t="s">
-        <v>2817</v>
+        <v>2799</v>
       </c>
       <c r="C902" t="s">
-        <v>2818</v>
+        <v>1409</v>
       </c>
       <c r="D902" t="s">
-        <v>2813</v>
+        <v>2792</v>
       </c>
       <c r="E902" t="s">
         <v>321</v>
@@ -45884,22 +46352,22 @@
         <v>1</v>
       </c>
       <c r="G902" t="s">
-        <v>2819</v>
+        <v>170</v>
       </c>
       <c r="H902">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="I902" t="s">
         <v>41</v>
       </c>
       <c r="J902">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K902">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L902" t="s">
-        <v>2814</v>
+        <v>2793</v>
       </c>
       <c r="M902" t="s">
         <v>52</v>
@@ -45907,16 +46375,16 @@
     </row>
     <row r="903" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>2810</v>
+        <v>2790</v>
       </c>
       <c r="B903" t="s">
-        <v>2820</v>
+        <v>2800</v>
       </c>
       <c r="C903" t="s">
-        <v>1409</v>
+        <v>1473</v>
       </c>
       <c r="D903" t="s">
-        <v>2813</v>
+        <v>2792</v>
       </c>
       <c r="E903" t="s">
         <v>321</v>
@@ -45925,22 +46393,22 @@
         <v>1</v>
       </c>
       <c r="G903" t="s">
-        <v>170</v>
+        <v>2304</v>
       </c>
       <c r="H903">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="I903" t="s">
         <v>41</v>
       </c>
       <c r="J903">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="K903">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L903" t="s">
-        <v>2814</v>
+        <v>2793</v>
       </c>
       <c r="M903" t="s">
         <v>52</v>
@@ -45948,16 +46416,16 @@
     </row>
     <row r="904" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>2811</v>
+        <v>2791</v>
       </c>
       <c r="B904" t="s">
-        <v>2821</v>
+        <v>910</v>
       </c>
       <c r="C904" t="s">
-        <v>1473</v>
+        <v>891</v>
       </c>
       <c r="D904" t="s">
-        <v>2813</v>
+        <v>2792</v>
       </c>
       <c r="E904" t="s">
         <v>321</v>
@@ -45966,22 +46434,22 @@
         <v>1</v>
       </c>
       <c r="G904" t="s">
-        <v>2304</v>
+        <v>1953</v>
       </c>
       <c r="H904">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I904" t="s">
         <v>41</v>
       </c>
       <c r="J904">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="K904">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L904" t="s">
-        <v>2814</v>
+        <v>2793</v>
       </c>
       <c r="M904" t="s">
         <v>52</v>
@@ -45989,16 +46457,16 @@
     </row>
     <row r="905" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>2812</v>
+        <v>2801</v>
       </c>
       <c r="B905" t="s">
-        <v>910</v>
+        <v>2807</v>
       </c>
       <c r="C905" t="s">
-        <v>891</v>
+        <v>1566</v>
       </c>
       <c r="D905" t="s">
-        <v>2813</v>
+        <v>2854</v>
       </c>
       <c r="E905" t="s">
         <v>321</v>
@@ -46007,33 +46475,39 @@
         <v>1</v>
       </c>
       <c r="G905" t="s">
-        <v>1953</v>
+        <v>1566</v>
       </c>
       <c r="H905">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="I905" t="s">
         <v>41</v>
       </c>
       <c r="J905">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="K905">
         <v>1</v>
       </c>
       <c r="L905" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="M905" t="s">
-        <v>52</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="906" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>2822</v>
+        <v>2802</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C906" t="s">
+        <v>2810</v>
       </c>
       <c r="D906" t="s">
-        <v>2828</v>
+        <v>2854</v>
       </c>
       <c r="E906" t="s">
         <v>321</v>
@@ -46041,17 +46515,23 @@
       <c r="F906">
         <v>1</v>
       </c>
+      <c r="G906" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H906">
+        <v>152</v>
+      </c>
       <c r="I906" t="s">
         <v>41</v>
       </c>
       <c r="J906">
-        <v>2002</v>
+        <v>1981</v>
       </c>
       <c r="K906">
         <v>1</v>
       </c>
       <c r="L906" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="M906" t="s">
         <v>52</v>
@@ -46059,10 +46539,16 @@
     </row>
     <row r="907" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>2823</v>
+        <v>2803</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C907" t="s">
+        <v>2813</v>
       </c>
       <c r="D907" t="s">
-        <v>2813</v>
+        <v>2854</v>
       </c>
       <c r="E907" t="s">
         <v>321</v>
@@ -46070,17 +46556,23 @@
       <c r="F907">
         <v>1</v>
       </c>
+      <c r="G907" t="s">
+        <v>2814</v>
+      </c>
+      <c r="H907">
+        <v>75</v>
+      </c>
       <c r="I907" t="s">
         <v>41</v>
       </c>
       <c r="J907">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="K907">
         <v>1</v>
       </c>
       <c r="L907" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="M907" t="s">
         <v>52</v>
@@ -46088,10 +46580,16 @@
     </row>
     <row r="908" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>2824</v>
+        <v>2804</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C908" t="s">
+        <v>2816</v>
       </c>
       <c r="D908" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E908" t="s">
         <v>321</v>
@@ -46099,17 +46597,23 @@
       <c r="F908">
         <v>1</v>
       </c>
+      <c r="G908" t="s">
+        <v>2814</v>
+      </c>
+      <c r="H908">
+        <v>73</v>
+      </c>
       <c r="I908" t="s">
         <v>41</v>
       </c>
       <c r="J908">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="K908">
         <v>1</v>
       </c>
       <c r="L908" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="M908" t="s">
         <v>52</v>
@@ -46117,10 +46621,16 @@
     </row>
     <row r="909" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>2825</v>
+        <v>2805</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C909" t="s">
+        <v>2817</v>
       </c>
       <c r="D909" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E909" t="s">
         <v>321</v>
@@ -46128,17 +46638,23 @@
       <c r="F909">
         <v>1</v>
       </c>
+      <c r="G909" t="s">
+        <v>2818</v>
+      </c>
+      <c r="H909">
+        <v>59</v>
+      </c>
       <c r="I909" t="s">
         <v>41</v>
       </c>
       <c r="J909">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="K909">
         <v>1</v>
       </c>
       <c r="L909" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M909" t="s">
         <v>52</v>
@@ -46146,10 +46662,16 @@
     </row>
     <row r="910" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>2826</v>
+        <v>2806</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C910" t="s">
+        <v>2821</v>
       </c>
       <c r="D910" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E910" t="s">
         <v>321</v>
@@ -46157,17 +46679,23 @@
       <c r="F910">
         <v>1</v>
       </c>
+      <c r="G910" t="s">
+        <v>2763</v>
+      </c>
+      <c r="H910">
+        <v>94</v>
+      </c>
       <c r="I910" t="s">
         <v>41</v>
       </c>
       <c r="J910">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K910">
         <v>1</v>
       </c>
       <c r="L910" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M910" t="s">
         <v>52</v>
@@ -46175,10 +46703,16 @@
     </row>
     <row r="911" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>2827</v>
+        <v>2824</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C911" t="s">
+        <v>2823</v>
       </c>
       <c r="D911" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E911" t="s">
         <v>321</v>
@@ -46186,17 +46720,23 @@
       <c r="F911">
         <v>1</v>
       </c>
+      <c r="G911" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H911">
+        <v>109</v>
+      </c>
       <c r="I911" t="s">
         <v>41</v>
       </c>
       <c r="J911">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K911">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L911" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M911" t="s">
         <v>52</v>
@@ -46204,10 +46744,16 @@
     </row>
     <row r="912" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>2660</v>
+        <v>2838</v>
+      </c>
+      <c r="B912" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C912" t="s">
+        <v>2843</v>
       </c>
       <c r="D912" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E912" t="s">
         <v>321</v>
@@ -46215,17 +46761,23 @@
       <c r="F912">
         <v>1</v>
       </c>
+      <c r="G912" t="s">
+        <v>2571</v>
+      </c>
+      <c r="H912">
+        <v>539</v>
+      </c>
       <c r="I912" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J912">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="K912">
         <v>1</v>
       </c>
       <c r="L912" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M912" t="s">
         <v>52</v>
@@ -46233,10 +46785,16 @@
     </row>
     <row r="913" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>2661</v>
+        <v>2839</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C913" t="s">
+        <v>2845</v>
       </c>
       <c r="D913" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E913" t="s">
         <v>321</v>
@@ -46244,17 +46802,23 @@
       <c r="F913">
         <v>1</v>
       </c>
+      <c r="G913" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H913">
+        <v>69</v>
+      </c>
       <c r="I913" t="s">
         <v>41</v>
       </c>
       <c r="J913">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="K913">
         <v>1</v>
       </c>
       <c r="L913" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M913" t="s">
         <v>52</v>
@@ -46262,10 +46826,16 @@
     </row>
     <row r="914" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>2662</v>
+        <v>2840</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C914" t="s">
+        <v>2845</v>
       </c>
       <c r="D914" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E914" t="s">
         <v>321</v>
@@ -46273,17 +46843,23 @@
       <c r="F914">
         <v>1</v>
       </c>
+      <c r="G914" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H914">
+        <v>68</v>
+      </c>
       <c r="I914" t="s">
         <v>41</v>
       </c>
       <c r="J914">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="K914">
         <v>1</v>
       </c>
       <c r="L914" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M914" t="s">
         <v>52</v>
@@ -46291,10 +46867,16 @@
     </row>
     <row r="915" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>2663</v>
+        <v>2841</v>
+      </c>
+      <c r="B915" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C915" t="s">
+        <v>2845</v>
       </c>
       <c r="D915" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E915" t="s">
         <v>321</v>
@@ -46302,17 +46884,23 @@
       <c r="F915">
         <v>1</v>
       </c>
+      <c r="G915" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H915">
+        <v>54</v>
+      </c>
       <c r="I915" t="s">
         <v>41</v>
       </c>
       <c r="J915">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="K915">
         <v>1</v>
       </c>
       <c r="L915" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M915" t="s">
         <v>52</v>
@@ -46320,10 +46908,16 @@
     </row>
     <row r="916" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>2664</v>
+        <v>2857</v>
+      </c>
+      <c r="B916" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C916" t="s">
+        <v>2850</v>
       </c>
       <c r="D916" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E916" t="s">
         <v>321</v>
@@ -46331,17 +46925,23 @@
       <c r="F916">
         <v>1</v>
       </c>
+      <c r="G916" t="s">
+        <v>2851</v>
+      </c>
+      <c r="H916">
+        <v>159</v>
+      </c>
       <c r="I916" t="s">
         <v>41</v>
       </c>
       <c r="J916">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="K916">
         <v>1</v>
       </c>
       <c r="L916" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M916" t="s">
         <v>52</v>
@@ -46349,10 +46949,16 @@
     </row>
     <row r="917" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>2665</v>
+        <v>2858</v>
+      </c>
+      <c r="B917" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C917" t="s">
+        <v>2853</v>
       </c>
       <c r="D917" t="s">
-        <v>2679</v>
+        <v>2854</v>
       </c>
       <c r="E917" t="s">
         <v>321</v>
@@ -46360,17 +46966,23 @@
       <c r="F917">
         <v>1</v>
       </c>
+      <c r="G917" t="s">
+        <v>2304</v>
+      </c>
+      <c r="H917">
+        <v>357</v>
+      </c>
       <c r="I917" t="s">
         <v>41</v>
       </c>
       <c r="J917">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="K917">
         <v>1</v>
       </c>
       <c r="L917" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M917" t="s">
         <v>52</v>
@@ -46378,10 +46990,16 @@
     </row>
     <row r="918" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>2666</v>
+        <v>2977</v>
+      </c>
+      <c r="B918" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C918" t="s">
+        <v>2973</v>
       </c>
       <c r="D918" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E918" t="s">
         <v>321</v>
@@ -46389,17 +47007,23 @@
       <c r="F918">
         <v>1</v>
       </c>
+      <c r="G918" t="s">
+        <v>2974</v>
+      </c>
+      <c r="H918">
+        <v>301</v>
+      </c>
       <c r="I918" t="s">
         <v>41</v>
       </c>
       <c r="J918">
-        <v>2002</v>
+        <v>1935</v>
       </c>
       <c r="K918">
         <v>1</v>
       </c>
       <c r="L918" t="s">
-        <v>2683</v>
+        <v>2815</v>
       </c>
       <c r="M918" t="s">
         <v>52</v>
@@ -46407,10 +47031,16 @@
     </row>
     <row r="919" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>2667</v>
+        <v>2825</v>
+      </c>
+      <c r="B919" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C919" t="s">
+        <v>2856</v>
       </c>
       <c r="D919" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E919" t="s">
         <v>321</v>
@@ -46418,17 +47048,23 @@
       <c r="F919">
         <v>1</v>
       </c>
+      <c r="G919" t="s">
+        <v>56</v>
+      </c>
+      <c r="H919">
+        <v>209</v>
+      </c>
       <c r="I919" t="s">
         <v>41</v>
       </c>
       <c r="J919">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="K919">
         <v>1</v>
       </c>
       <c r="L919" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M919" t="s">
         <v>52</v>
@@ -46436,10 +47072,16 @@
     </row>
     <row r="920" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>2668</v>
+        <v>2826</v>
+      </c>
+      <c r="B920" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C920" t="s">
+        <v>2860</v>
       </c>
       <c r="D920" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E920" t="s">
         <v>321</v>
@@ -46447,17 +47089,23 @@
       <c r="F920">
         <v>1</v>
       </c>
+      <c r="G920" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H920">
+        <v>295</v>
+      </c>
       <c r="I920" t="s">
         <v>41</v>
       </c>
       <c r="J920">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="K920">
         <v>1</v>
       </c>
       <c r="L920" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M920" t="s">
         <v>52</v>
@@ -46465,10 +47113,16 @@
     </row>
     <row r="921" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>2669</v>
+        <v>2827</v>
+      </c>
+      <c r="B921" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C921" t="s">
+        <v>2863</v>
       </c>
       <c r="D921" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E921" t="s">
         <v>321</v>
@@ -46476,17 +47130,23 @@
       <c r="F921">
         <v>1</v>
       </c>
+      <c r="G921" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H921">
+        <v>304</v>
+      </c>
       <c r="I921" t="s">
         <v>41</v>
       </c>
       <c r="J921">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="K921">
         <v>1</v>
       </c>
       <c r="L921" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M921" t="s">
         <v>52</v>
@@ -46494,10 +47154,16 @@
     </row>
     <row r="922" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>2670</v>
+        <v>2828</v>
+      </c>
+      <c r="B922" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C922" t="s">
+        <v>2865</v>
       </c>
       <c r="D922" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E922" t="s">
         <v>321</v>
@@ -46505,17 +47171,23 @@
       <c r="F922">
         <v>1</v>
       </c>
+      <c r="G922" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H922">
+        <v>212</v>
+      </c>
       <c r="I922" t="s">
         <v>41</v>
       </c>
       <c r="J922">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="K922">
         <v>1</v>
       </c>
       <c r="L922" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M922" t="s">
         <v>52</v>
@@ -46523,10 +47195,16 @@
     </row>
     <row r="923" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>2671</v>
+        <v>2829</v>
+      </c>
+      <c r="B923" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C923" t="s">
+        <v>2868</v>
       </c>
       <c r="D923" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E923" t="s">
         <v>321</v>
@@ -46534,17 +47212,23 @@
       <c r="F923">
         <v>1</v>
       </c>
+      <c r="G923" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H923">
+        <v>382</v>
+      </c>
       <c r="I923" t="s">
         <v>41</v>
       </c>
       <c r="J923">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="K923">
         <v>1</v>
       </c>
       <c r="L923" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M923" t="s">
         <v>52</v>
@@ -46552,10 +47236,16 @@
     </row>
     <row r="924" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>2672</v>
+        <v>2830</v>
+      </c>
+      <c r="B924" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C924" t="s">
+        <v>2870</v>
       </c>
       <c r="D924" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E924" t="s">
         <v>321</v>
@@ -46563,17 +47253,23 @@
       <c r="F924">
         <v>1</v>
       </c>
+      <c r="G924" t="s">
+        <v>2871</v>
+      </c>
+      <c r="H924">
+        <v>157</v>
+      </c>
       <c r="I924" t="s">
         <v>41</v>
       </c>
       <c r="J924">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="K924">
         <v>1</v>
       </c>
       <c r="L924" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M924" t="s">
         <v>52</v>
@@ -46581,10 +47277,16 @@
     </row>
     <row r="925" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>2673</v>
+        <v>2831</v>
+      </c>
+      <c r="B925" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C925" t="s">
+        <v>2873</v>
       </c>
       <c r="D925" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E925" t="s">
         <v>321</v>
@@ -46592,17 +47294,23 @@
       <c r="F925">
         <v>1</v>
       </c>
+      <c r="G925" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H925">
+        <v>61</v>
+      </c>
       <c r="I925" t="s">
         <v>41</v>
       </c>
       <c r="J925">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="K925">
         <v>1</v>
       </c>
       <c r="L925" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M925" t="s">
         <v>52</v>
@@ -46610,10 +47318,16 @@
     </row>
     <row r="926" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>2674</v>
+        <v>2832</v>
+      </c>
+      <c r="B926" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C926" t="s">
+        <v>210</v>
       </c>
       <c r="D926" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E926" t="s">
         <v>321</v>
@@ -46621,17 +47335,23 @@
       <c r="F926">
         <v>1</v>
       </c>
+      <c r="G926" t="s">
+        <v>2876</v>
+      </c>
+      <c r="H926">
+        <v>159</v>
+      </c>
       <c r="I926" t="s">
         <v>41</v>
       </c>
       <c r="J926">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="K926">
         <v>1</v>
       </c>
       <c r="L926" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M926" t="s">
         <v>52</v>
@@ -46639,10 +47359,16 @@
     </row>
     <row r="927" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>2675</v>
+        <v>2833</v>
+      </c>
+      <c r="B927" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C927" t="s">
+        <v>2878</v>
       </c>
       <c r="D927" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E927" t="s">
         <v>321</v>
@@ -46650,17 +47376,23 @@
       <c r="F927">
         <v>1</v>
       </c>
+      <c r="G927" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H927">
+        <v>60</v>
+      </c>
       <c r="I927" t="s">
         <v>41</v>
       </c>
       <c r="J927">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="K927">
         <v>1</v>
       </c>
       <c r="L927" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M927" t="s">
         <v>52</v>
@@ -46668,10 +47400,16 @@
     </row>
     <row r="928" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>2676</v>
+        <v>2834</v>
+      </c>
+      <c r="B928" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C928" t="s">
+        <v>2880</v>
       </c>
       <c r="D928" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E928" t="s">
         <v>321</v>
@@ -46679,17 +47417,23 @@
       <c r="F928">
         <v>1</v>
       </c>
+      <c r="G928" t="s">
+        <v>2881</v>
+      </c>
+      <c r="H928">
+        <v>489</v>
+      </c>
       <c r="I928" t="s">
         <v>41</v>
       </c>
       <c r="J928">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="K928">
         <v>1</v>
       </c>
       <c r="L928" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M928" t="s">
         <v>52</v>
@@ -46697,10 +47441,16 @@
     </row>
     <row r="929" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>2677</v>
+        <v>2835</v>
+      </c>
+      <c r="B929" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C929" t="s">
+        <v>2883</v>
       </c>
       <c r="D929" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E929" t="s">
         <v>321</v>
@@ -46708,17 +47458,23 @@
       <c r="F929">
         <v>1</v>
       </c>
+      <c r="G929" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H929">
+        <v>63</v>
+      </c>
       <c r="I929" t="s">
         <v>41</v>
       </c>
       <c r="J929">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="K929">
         <v>1</v>
       </c>
       <c r="L929" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M929" t="s">
         <v>52</v>
@@ -46726,10 +47482,16 @@
     </row>
     <row r="930" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>2678</v>
+        <v>2836</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C930" t="s">
+        <v>2883</v>
       </c>
       <c r="D930" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E930" t="s">
         <v>321</v>
@@ -46737,25 +47499,40 @@
       <c r="F930">
         <v>1</v>
       </c>
+      <c r="G930" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H930">
+        <v>67</v>
+      </c>
       <c r="I930" t="s">
         <v>41</v>
       </c>
       <c r="J930">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="K930">
         <v>1</v>
       </c>
       <c r="L930" t="s">
-        <v>2683</v>
+        <v>2837</v>
       </c>
       <c r="M930" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="931" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C931" t="s">
+        <v>2883</v>
+      </c>
       <c r="D931" t="s">
-        <v>2679</v>
+        <v>1904</v>
       </c>
       <c r="E931" t="s">
         <v>321</v>
@@ -46763,505 +47540,1036 @@
       <c r="F931">
         <v>1</v>
       </c>
+      <c r="G931" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H931">
+        <v>63</v>
+      </c>
       <c r="I931" t="s">
         <v>41</v>
       </c>
       <c r="J931">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="K931">
         <v>1</v>
       </c>
+      <c r="L931" t="s">
+        <v>2837</v>
+      </c>
       <c r="M931" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="932" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C932" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1904</v>
+      </c>
       <c r="E932" t="s">
         <v>321</v>
       </c>
       <c r="F932">
         <v>1</v>
       </c>
+      <c r="G932" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H932">
+        <v>51</v>
+      </c>
       <c r="I932" t="s">
         <v>41</v>
       </c>
       <c r="J932">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="K932">
         <v>1</v>
       </c>
+      <c r="L932" t="s">
+        <v>2837</v>
+      </c>
       <c r="M932" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="933" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B933" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C933" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1904</v>
+      </c>
       <c r="E933" t="s">
         <v>321</v>
       </c>
       <c r="F933">
         <v>1</v>
       </c>
+      <c r="G933" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H933">
+        <v>66</v>
+      </c>
       <c r="I933" t="s">
         <v>41</v>
       </c>
       <c r="J933">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="K933">
         <v>1</v>
       </c>
+      <c r="L933" t="s">
+        <v>2837</v>
+      </c>
       <c r="M933" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="934" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B934" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C934" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1904</v>
+      </c>
       <c r="E934" t="s">
         <v>321</v>
       </c>
       <c r="F934">
         <v>1</v>
       </c>
+      <c r="G934" t="s">
+        <v>56</v>
+      </c>
+      <c r="H934">
+        <v>64</v>
+      </c>
       <c r="I934" t="s">
         <v>41</v>
       </c>
       <c r="J934">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K934">
         <v>1</v>
       </c>
+      <c r="L934" t="s">
+        <v>2837</v>
+      </c>
       <c r="M934" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="935" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B935" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C935" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1904</v>
+      </c>
       <c r="E935" t="s">
         <v>321</v>
       </c>
       <c r="F935">
         <v>1</v>
       </c>
+      <c r="G935" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H935">
+        <v>227</v>
+      </c>
       <c r="I935" t="s">
         <v>41</v>
       </c>
       <c r="J935">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="K935">
         <v>1</v>
       </c>
+      <c r="L935" t="s">
+        <v>2837</v>
+      </c>
       <c r="M935" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="936" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B936" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C936" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1904</v>
+      </c>
       <c r="E936" t="s">
         <v>321</v>
       </c>
       <c r="F936">
         <v>1</v>
       </c>
+      <c r="G936" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H936">
+        <v>297</v>
+      </c>
       <c r="I936" t="s">
         <v>41</v>
       </c>
       <c r="J936">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="K936">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L936" t="s">
+        <v>2837</v>
       </c>
       <c r="M936" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="937" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B937" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C937" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1904</v>
+      </c>
       <c r="E937" t="s">
         <v>321</v>
       </c>
       <c r="F937">
         <v>1</v>
       </c>
+      <c r="G937" t="s">
+        <v>2921</v>
+      </c>
+      <c r="H937">
+        <v>355</v>
+      </c>
       <c r="I937" t="s">
         <v>41</v>
       </c>
       <c r="J937">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="K937">
         <v>1</v>
       </c>
+      <c r="L937" t="s">
+        <v>2837</v>
+      </c>
       <c r="M937" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="938" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B938" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C938" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1904</v>
+      </c>
       <c r="E938" t="s">
         <v>321</v>
       </c>
       <c r="F938">
         <v>1</v>
       </c>
+      <c r="G938" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H938">
+        <v>242</v>
+      </c>
       <c r="I938" t="s">
         <v>41</v>
       </c>
       <c r="J938">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="K938">
         <v>1</v>
       </c>
+      <c r="L938" t="s">
+        <v>2837</v>
+      </c>
       <c r="M938" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="939" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B939" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C939" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1904</v>
+      </c>
       <c r="E939" t="s">
         <v>321</v>
       </c>
       <c r="F939">
         <v>1</v>
       </c>
+      <c r="G939" t="s">
+        <v>564</v>
+      </c>
+      <c r="H939">
+        <v>215</v>
+      </c>
       <c r="I939" t="s">
         <v>41</v>
       </c>
       <c r="J939">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="K939">
         <v>1</v>
       </c>
+      <c r="L939" t="s">
+        <v>2837</v>
+      </c>
       <c r="M939" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="940" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B940" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C940" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1904</v>
+      </c>
       <c r="E940" t="s">
         <v>321</v>
       </c>
       <c r="F940">
         <v>1</v>
       </c>
+      <c r="G940" t="s">
+        <v>287</v>
+      </c>
+      <c r="H940">
+        <v>140</v>
+      </c>
       <c r="I940" t="s">
         <v>41</v>
       </c>
       <c r="J940">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="K940">
         <v>1</v>
       </c>
+      <c r="L940" t="s">
+        <v>2837</v>
+      </c>
       <c r="M940" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="941" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B941" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C941" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1904</v>
+      </c>
       <c r="E941" t="s">
         <v>321</v>
       </c>
       <c r="F941">
         <v>1</v>
       </c>
+      <c r="G941" t="s">
+        <v>2929</v>
+      </c>
+      <c r="H941">
+        <v>55</v>
+      </c>
       <c r="I941" t="s">
         <v>41</v>
       </c>
       <c r="J941">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K941">
         <v>1</v>
       </c>
+      <c r="L941" t="s">
+        <v>2837</v>
+      </c>
       <c r="M941" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="942" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B942" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C942" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D942" t="s">
+        <v>1904</v>
+      </c>
       <c r="E942" t="s">
         <v>321</v>
       </c>
       <c r="F942">
         <v>1</v>
       </c>
+      <c r="G942" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H942">
+        <v>101</v>
+      </c>
       <c r="I942" t="s">
         <v>41</v>
       </c>
       <c r="J942">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="K942">
         <v>1</v>
       </c>
+      <c r="L942" t="s">
+        <v>2837</v>
+      </c>
       <c r="M942" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="943" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B943" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C943" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1904</v>
+      </c>
       <c r="E943" t="s">
         <v>321</v>
       </c>
       <c r="F943">
         <v>1</v>
       </c>
+      <c r="G943" t="s">
+        <v>337</v>
+      </c>
+      <c r="H943">
+        <v>219</v>
+      </c>
       <c r="I943" t="s">
         <v>41</v>
       </c>
       <c r="J943">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="K943">
         <v>1</v>
       </c>
+      <c r="L943" t="s">
+        <v>2837</v>
+      </c>
       <c r="M943" t="s">
-        <v>52</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="944" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B944" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C944" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1904</v>
+      </c>
       <c r="E944" t="s">
         <v>321</v>
       </c>
       <c r="F944">
         <v>1</v>
       </c>
+      <c r="G944" t="s">
+        <v>287</v>
+      </c>
+      <c r="H944">
+        <v>311</v>
+      </c>
       <c r="I944" t="s">
         <v>41</v>
       </c>
       <c r="J944">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="K944">
         <v>1</v>
       </c>
+      <c r="L944" t="s">
+        <v>2837</v>
+      </c>
       <c r="M944" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="945" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B945" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C945" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1904</v>
+      </c>
       <c r="E945" t="s">
         <v>321</v>
       </c>
       <c r="F945">
         <v>1</v>
       </c>
+      <c r="G945" t="s">
+        <v>2665</v>
+      </c>
+      <c r="H945">
+        <v>281</v>
+      </c>
       <c r="I945" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J945">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="K945">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L945" t="s">
+        <v>2837</v>
       </c>
       <c r="M945" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="946" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B946" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C946" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1904</v>
+      </c>
       <c r="E946" t="s">
         <v>321</v>
       </c>
       <c r="F946">
         <v>1</v>
       </c>
+      <c r="G946" t="s">
+        <v>170</v>
+      </c>
+      <c r="H946">
+        <v>63</v>
+      </c>
       <c r="I946" t="s">
         <v>41</v>
       </c>
       <c r="J946">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="K946">
         <v>1</v>
       </c>
+      <c r="L946" t="s">
+        <v>2837</v>
+      </c>
       <c r="M946" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="947" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C947" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1904</v>
+      </c>
       <c r="E947" t="s">
         <v>321</v>
       </c>
       <c r="F947">
         <v>1</v>
       </c>
+      <c r="G947" t="s">
+        <v>170</v>
+      </c>
+      <c r="H947">
+        <v>46</v>
+      </c>
       <c r="I947" t="s">
         <v>41</v>
       </c>
       <c r="J947">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="K947">
         <v>1</v>
       </c>
+      <c r="L947" t="s">
+        <v>2837</v>
+      </c>
       <c r="M947" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="948" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B948" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C948" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1904</v>
+      </c>
       <c r="E948" t="s">
         <v>321</v>
       </c>
       <c r="F948">
         <v>1</v>
       </c>
+      <c r="G948" t="s">
+        <v>170</v>
+      </c>
+      <c r="H948">
+        <v>44</v>
+      </c>
       <c r="I948" t="s">
         <v>41</v>
       </c>
       <c r="J948">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="K948">
         <v>1</v>
       </c>
+      <c r="L948" t="s">
+        <v>2837</v>
+      </c>
       <c r="M948" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="949" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B949" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C949" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1904</v>
+      </c>
       <c r="E949" t="s">
         <v>321</v>
       </c>
       <c r="F949">
         <v>1</v>
       </c>
+      <c r="G949" t="s">
+        <v>170</v>
+      </c>
+      <c r="H949">
+        <v>46</v>
+      </c>
       <c r="I949" t="s">
         <v>41</v>
       </c>
       <c r="J949">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="K949">
         <v>1</v>
       </c>
+      <c r="L949" t="s">
+        <v>2837</v>
+      </c>
       <c r="M949" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="950" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B950" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C950" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1904</v>
+      </c>
       <c r="E950" t="s">
         <v>321</v>
       </c>
       <c r="F950">
         <v>1</v>
       </c>
+      <c r="G950" t="s">
+        <v>170</v>
+      </c>
+      <c r="H950">
+        <v>47</v>
+      </c>
       <c r="I950" t="s">
         <v>41</v>
       </c>
       <c r="J950">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="K950">
         <v>1</v>
       </c>
+      <c r="L950" t="s">
+        <v>2837</v>
+      </c>
       <c r="M950" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="951" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B951" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C951" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1904</v>
+      </c>
       <c r="E951" t="s">
         <v>321</v>
       </c>
       <c r="F951">
         <v>1</v>
       </c>
+      <c r="G951" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H951">
+        <v>189</v>
+      </c>
       <c r="I951" t="s">
         <v>41</v>
       </c>
       <c r="J951">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="K951">
         <v>1</v>
       </c>
+      <c r="L951" t="s">
+        <v>2837</v>
+      </c>
       <c r="M951" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="952" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B952" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1904</v>
+      </c>
       <c r="E952" t="s">
         <v>321</v>
       </c>
       <c r="F952">
         <v>1</v>
       </c>
+      <c r="G952" t="s">
+        <v>170</v>
+      </c>
+      <c r="H952">
+        <v>46</v>
+      </c>
       <c r="I952" t="s">
         <v>41</v>
       </c>
       <c r="J952">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="K952">
         <v>1</v>
       </c>
+      <c r="L952" t="s">
+        <v>2837</v>
+      </c>
       <c r="M952" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="953" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B953" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C953" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1904</v>
+      </c>
       <c r="E953" t="s">
         <v>321</v>
       </c>
       <c r="F953">
         <v>1</v>
       </c>
+      <c r="G953" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H953">
+        <v>116</v>
+      </c>
       <c r="I953" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J953">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K953">
         <v>1</v>
       </c>
+      <c r="L953" t="s">
+        <v>2837</v>
+      </c>
       <c r="M953" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="954" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B954" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C954" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1904</v>
+      </c>
       <c r="E954" t="s">
         <v>321</v>
       </c>
       <c r="F954">
         <v>1</v>
       </c>
+      <c r="G954" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H954">
+        <v>185</v>
+      </c>
       <c r="I954" t="s">
         <v>41</v>
       </c>
       <c r="J954">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K954">
         <v>1</v>
       </c>
+      <c r="L954" t="s">
+        <v>2837</v>
+      </c>
       <c r="M954" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="955" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B955" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C955" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1904</v>
+      </c>
       <c r="E955" t="s">
         <v>321</v>
       </c>
       <c r="F955">
         <v>1</v>
       </c>
+      <c r="G955" t="s">
+        <v>2763</v>
+      </c>
+      <c r="H955">
+        <v>183</v>
+      </c>
       <c r="I955" t="s">
         <v>41</v>
       </c>
       <c r="J955">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K955">
         <v>1</v>
       </c>
+      <c r="L955" t="s">
+        <v>2837</v>
+      </c>
       <c r="M955" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="956" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B956" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C956" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1904</v>
+      </c>
       <c r="E956" t="s">
         <v>321</v>
       </c>
       <c r="F956">
         <v>1</v>
+      </c>
+      <c r="G956" t="s">
+        <v>210</v>
+      </c>
+      <c r="H956">
+        <v>213</v>
       </c>
       <c r="I956" t="s">
         <v>41</v>
@@ -47272,16 +48580,37 @@
       <c r="K956">
         <v>1</v>
       </c>
+      <c r="L956" t="s">
+        <v>2837</v>
+      </c>
       <c r="M956" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="957" spans="5:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B957" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C957" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1904</v>
+      </c>
       <c r="E957" t="s">
         <v>321</v>
       </c>
       <c r="F957">
         <v>1</v>
+      </c>
+      <c r="G957" t="s">
+        <v>170</v>
+      </c>
+      <c r="H957">
+        <v>250</v>
       </c>
       <c r="I957" t="s">
         <v>41</v>
@@ -47292,208 +48621,257 @@
       <c r="K957">
         <v>1</v>
       </c>
+      <c r="L957" t="s">
+        <v>2837</v>
+      </c>
       <c r="M957" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="958" spans="5:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B958" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C958" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1904</v>
+      </c>
       <c r="E958" t="s">
         <v>321</v>
       </c>
       <c r="F958">
         <v>1</v>
       </c>
+      <c r="G958" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H958">
+        <v>130</v>
+      </c>
       <c r="I958" t="s">
         <v>41</v>
       </c>
       <c r="J958">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="K958">
         <v>1</v>
       </c>
+      <c r="L958" t="s">
+        <v>2837</v>
+      </c>
       <c r="M958" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="959" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C959" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1904</v>
+      </c>
       <c r="E959" t="s">
         <v>321</v>
       </c>
       <c r="F959">
         <v>1</v>
       </c>
+      <c r="G959" t="s">
+        <v>120</v>
+      </c>
+      <c r="H959">
+        <v>847</v>
+      </c>
       <c r="I959" t="s">
         <v>41</v>
       </c>
       <c r="J959">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="K959">
         <v>1</v>
       </c>
+      <c r="L959" t="s">
+        <v>2837</v>
+      </c>
       <c r="M959" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="960" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B960" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C960" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1904</v>
+      </c>
       <c r="E960" t="s">
         <v>321</v>
       </c>
       <c r="F960">
         <v>1</v>
       </c>
+      <c r="G960" t="s">
+        <v>2763</v>
+      </c>
+      <c r="H960">
+        <v>232</v>
+      </c>
       <c r="I960" t="s">
         <v>41</v>
       </c>
       <c r="J960">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="K960">
         <v>1</v>
       </c>
+      <c r="L960" t="s">
+        <v>2837</v>
+      </c>
       <c r="M960" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="961" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B961" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C961" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1904</v>
+      </c>
       <c r="E961" t="s">
         <v>321</v>
       </c>
       <c r="F961">
         <v>1</v>
       </c>
+      <c r="G961" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H961">
+        <v>265</v>
+      </c>
       <c r="I961" t="s">
         <v>41</v>
       </c>
       <c r="J961">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K961">
         <v>1</v>
       </c>
+      <c r="L961" t="s">
+        <v>2837</v>
+      </c>
       <c r="M961" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="962" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B962" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C962" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1904</v>
+      </c>
       <c r="E962" t="s">
         <v>321</v>
       </c>
       <c r="F962">
         <v>1</v>
       </c>
+      <c r="G962" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H962">
+        <v>294</v>
+      </c>
       <c r="I962" t="s">
         <v>41</v>
       </c>
       <c r="J962">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="K962">
         <v>1</v>
       </c>
+      <c r="L962" t="s">
+        <v>2837</v>
+      </c>
       <c r="M962" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="963" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B963" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C963" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1904</v>
+      </c>
       <c r="E963" t="s">
         <v>321</v>
       </c>
       <c r="F963">
         <v>1</v>
       </c>
+      <c r="G963" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H963">
+        <v>245</v>
+      </c>
       <c r="I963" t="s">
         <v>41</v>
       </c>
       <c r="J963">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="K963">
         <v>1</v>
       </c>
+      <c r="L963" t="s">
+        <v>2837</v>
+      </c>
       <c r="M963" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="964" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E964" t="s">
-        <v>321</v>
-      </c>
-      <c r="F964">
-        <v>1</v>
-      </c>
-      <c r="I964" t="s">
-        <v>41</v>
-      </c>
-      <c r="J964">
-        <v>2002</v>
-      </c>
-      <c r="K964">
-        <v>1</v>
-      </c>
-      <c r="M964" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="965" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E965" t="s">
-        <v>321</v>
-      </c>
-      <c r="F965">
-        <v>1</v>
-      </c>
-      <c r="I965" t="s">
-        <v>41</v>
-      </c>
-      <c r="J965">
-        <v>2002</v>
-      </c>
-      <c r="K965">
-        <v>1</v>
-      </c>
-      <c r="M965" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="966" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E966" t="s">
-        <v>321</v>
-      </c>
-      <c r="F966">
-        <v>1</v>
-      </c>
-      <c r="I966" t="s">
-        <v>41</v>
-      </c>
-      <c r="J966">
-        <v>2002</v>
-      </c>
-      <c r="K966">
-        <v>1</v>
-      </c>
-      <c r="M966" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="967" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="M967" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="968" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="M968" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="969" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="M969" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="970" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="M970" t="s">
-        <v>52</v>
+        <v>2984</v>
       </c>
     </row>
   </sheetData>
